--- a/SCTestData/User.xlsx
+++ b/SCTestData/User.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>User_On_11/12/18-15:19</t>
+  </si>
+  <si>
+    <t>User_On_18/12/18-11:30</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/SCTestData/User.xlsx
+++ b/SCTestData/User.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>User_On_18/12/18-11:30</t>
+  </si>
+  <si>
+    <t>User_On_03/01/19-10:41</t>
+  </si>
+  <si>
+    <t>User_On_03/01/19-11:02</t>
+  </si>
+  <si>
+    <t>User_On_03/01/19-11:15</t>
+  </si>
+  <si>
+    <t>User_On_03/01/19-11:24</t>
   </si>
 </sst>
 </file>
@@ -451,7 +463,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/SCTestData/User.xlsx
+++ b/SCTestData/User.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>UserName</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>User_On_03/01/19-11:24</t>
+  </si>
+  <si>
+    <t>User_On_10/01/19-17:03</t>
+  </si>
+  <si>
+    <t>User_On_10/01/19-17:27</t>
+  </si>
+  <si>
+    <t>User_On_11/01/19-16:23</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/SCTestData/User.xlsx
+++ b/SCTestData/User.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A37D6A-A167-42AB-B745-19AE43267347}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C25DB5-D3AA-4D47-A45C-FCC0F193F751}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{2793ECA3-557B-4A18-B0EC-9D0E5BAECF9E}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -41,64 +41,55 @@
     <t>password</t>
   </si>
   <si>
-    <t>User_On_04/12/18-18:14</t>
-  </si>
-  <si>
     <t>NewPassword</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>password@123#</t>
   </si>
   <si>
-    <t>User_On_05/12/18-12:41</t>
-  </si>
-  <si>
-    <t>User_On_05/12/18-14:00</t>
-  </si>
-  <si>
-    <t>User_On_05/12/18-15:52</t>
-  </si>
-  <si>
-    <t>User_On_05/12/18-16:55</t>
-  </si>
-  <si>
-    <t>User_On_05/12/18-17:02</t>
-  </si>
-  <si>
-    <t>User_On_07/12/18-13:44</t>
-  </si>
-  <si>
-    <t>User_On_07/12/18-17:33</t>
-  </si>
-  <si>
-    <t>User_On_11/12/18-15:19</t>
-  </si>
-  <si>
-    <t>User_On_18/12/18-11:30</t>
-  </si>
-  <si>
-    <t>User_On_03/01/19-10:41</t>
-  </si>
-  <si>
-    <t>User_On_03/01/19-11:02</t>
-  </si>
-  <si>
-    <t>User_On_03/01/19-11:15</t>
-  </si>
-  <si>
-    <t>User_On_03/01/19-11:24</t>
-  </si>
-  <si>
-    <t>User_On_10/01/19-17:03</t>
-  </si>
-  <si>
-    <t>User_On_10/01/19-17:27</t>
-  </si>
-  <si>
-    <t>User_On_11/01/19-16:23</t>
+    <t>User_On_24/01/19-13:10</t>
+  </si>
+  <si>
+    <t>User_On_29/01/19-15:13</t>
+  </si>
+  <si>
+    <t>User_On_29/01/19-18:09</t>
+  </si>
+  <si>
+    <t>User_On_29/01/19-18:53</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-09:41</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-12:02</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-12:31</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-12:36</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-12:38</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-12:40</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-12:49</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-12:53</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-13:03</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-18:14</t>
+  </si>
+  <si>
+    <t>User_On_30/01/19-18:30</t>
   </si>
 </sst>
 </file>
@@ -454,7 +445,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,18 +458,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/User.xlsx
+++ b/SCTestData/User.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>UserName</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>User_On_30/01/19-18:30</t>
+  </si>
+  <si>
+    <t>User_On_01/02/19-13:11</t>
+  </si>
+  <si>
+    <t>User_On_01/02/19-16:38</t>
+  </si>
+  <si>
+    <t>User_On_01/02/19-17:18</t>
+  </si>
+  <si>
+    <t>User_On_04/02/19-18:39</t>
+  </si>
+  <si>
+    <t>User_On_04/02/19-18:55</t>
+  </si>
+  <si>
+    <t>User_On_06/02/19-18:18</t>
   </si>
 </sst>
 </file>
@@ -463,7 +481,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/SCTestData/User.xlsx
+++ b/SCTestData/User.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>UserName</t>
   </si>
@@ -108,6 +108,66 @@
   </si>
   <si>
     <t>User_On_06/02/19-18:18</t>
+  </si>
+  <si>
+    <t>User_On_19/02/19-12:30</t>
+  </si>
+  <si>
+    <t>User_On_20/02/19-14:43</t>
+  </si>
+  <si>
+    <t>User_On_20/02/19-15:00</t>
+  </si>
+  <si>
+    <t>User_On_20/02/19-15:44</t>
+  </si>
+  <si>
+    <t>User_On_25/02/19-17:14</t>
+  </si>
+  <si>
+    <t>User_On_26/02/19-12:20</t>
+  </si>
+  <si>
+    <t>User_On_28/02/19-15:57</t>
+  </si>
+  <si>
+    <t>User_On_28/02/19-17:19</t>
+  </si>
+  <si>
+    <t>User_On_28/02/19-17:47</t>
+  </si>
+  <si>
+    <t>User_On_28/02/19-18:18</t>
+  </si>
+  <si>
+    <t>User_On_01/03/19-11:33</t>
+  </si>
+  <si>
+    <t>User_On_01/03/19-12:50</t>
+  </si>
+  <si>
+    <t>User_On_01/03/19-13:06</t>
+  </si>
+  <si>
+    <t>User_On_01/03/19-15:05</t>
+  </si>
+  <si>
+    <t>User_On_01/03/19-15:25</t>
+  </si>
+  <si>
+    <t>User_On_01/03/19-15:56</t>
+  </si>
+  <si>
+    <t>User_On_08/03/19-12:22</t>
+  </si>
+  <si>
+    <t>User_On_08/03/19-13:11</t>
+  </si>
+  <si>
+    <t>User_On_08/03/19-14:20</t>
+  </si>
+  <si>
+    <t>User_On_08/03/19-14:42</t>
   </si>
 </sst>
 </file>
@@ -481,7 +541,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
